--- a/新規 Microsoft Excel ワークシート.xlsx
+++ b/新規 Microsoft Excel ワークシート.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
@@ -370,6 +370,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -384,6 +385,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>